--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>904824.6088170526</v>
+        <v>900812.8060849558</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.96014034</v>
+        <v>6432656.960140343</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5169622.37903443</v>
+        <v>5169622.379034429</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>266.7814379640787</v>
       </c>
       <c r="H11" t="n">
-        <v>116.8143086358642</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T12" t="n">
         <v>136.1757056744559</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>73.27504502376006</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
-        <v>77.46291985832812</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
         <v>71.96559361603954</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S13" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.097464026797</v>
@@ -1587,13 +1587,13 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>100.9988169929226</v>
       </c>
       <c r="G14" t="n">
-        <v>305.4229854895032</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U14" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T15" t="n">
         <v>136.1757056744559</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>69.53882383313446</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
         <v>237.097464026797</v>
@@ -1827,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>170.6705860390189</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>387.1105424413253</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>188.6821185354676</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T18" t="n">
         <v>136.1757056744559</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>13.86857439486156</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,10 +2019,10 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>46.0610239299153</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U19" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>162.4089555637312</v>
       </c>
       <c r="W20" t="n">
-        <v>310.392855573488</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T21" t="n">
         <v>136.1757056744559</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>50.33891844257298</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.8999186087154</v>
@@ -2295,7 +2295,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3339849899809</v>
+        <v>252.3367832487558</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -2332,10 +2332,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>104.2537157455737</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T23" t="n">
-        <v>132.3387784401061</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U23" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T24" t="n">
         <v>136.1757056744559</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2532,7 +2532,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989982</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>68.68961244975968</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>83.20767106564415</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T27" t="n">
         <v>136.1757056744559</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2800,13 +2800,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>285.6277475607614</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>18.86128664593506</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T30" t="n">
         <v>136.1757056744559</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3031,19 +3031,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>77.1363223127091</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>274.5392124624013</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>89.08879743148574</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T33" t="n">
         <v>136.1757056744559</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>188.2703104039344</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>8.872861597977655</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T36" t="n">
         <v>136.1757056744559</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.09175608006301</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>134.9617199762897</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.8999186087154</v>
@@ -3486,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>389.7838137938487</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>118.4674888539453</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T39" t="n">
         <v>136.1757056744559</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>21.4160935689006</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>88.90678768227339</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>152.8999186087154</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>105.9496020594429</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>34.4696058069531</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T42" t="n">
         <v>136.1757056744559</v>
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>102.9462585660502</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
         <v>237.097464026797</v>
@@ -3957,7 +3957,7 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
-        <v>74.12723539140219</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3979,16 +3979,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>45.52262477672472</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.3085625684984</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>47.33587016236798</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T45" t="n">
         <v>136.1757056744559</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>238.1342849442738</v>
+        <v>251.6057966742268</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>584.0422902582278</v>
+        <v>1012.836574895214</v>
       </c>
       <c r="C11" t="n">
-        <v>584.0422902582278</v>
+        <v>1012.836574895214</v>
       </c>
       <c r="D11" t="n">
-        <v>160.7496694432281</v>
+        <v>589.5439540802138</v>
       </c>
       <c r="E11" t="n">
-        <v>160.7496694432281</v>
+        <v>589.5439540802138</v>
       </c>
       <c r="F11" t="n">
-        <v>160.7496694432281</v>
+        <v>589.5439540802138</v>
       </c>
       <c r="G11" t="n">
-        <v>160.7496694432281</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I11" t="n">
         <v>84.39494262103619</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O11" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S11" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T11" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U11" t="n">
-        <v>1820.94792342712</v>
+        <v>1820.947923427119</v>
       </c>
       <c r="V11" t="n">
-        <v>1820.94792342712</v>
+        <v>1820.947923427119</v>
       </c>
       <c r="W11" t="n">
-        <v>1820.94792342712</v>
+        <v>1424.556573727466</v>
       </c>
       <c r="X11" t="n">
-        <v>1409.227924594868</v>
+        <v>1012.836574895214</v>
       </c>
       <c r="Y11" t="n">
-        <v>1003.890654549758</v>
+        <v>1012.836574895214</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C12" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D12" t="n">
         <v>377.0871448858306</v>
@@ -5111,37 +5111,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G12" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577485</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259967</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283643</v>
+        <v>653.0519528483965</v>
       </c>
       <c r="M12" t="n">
-        <v>739.8954600838658</v>
+        <v>896.8821538038978</v>
       </c>
       <c r="N12" t="n">
-        <v>992.5205257180613</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O12" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P12" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q12" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R12" t="n">
         <v>1815.649874842555</v>
@@ -5162,10 +5162,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X12" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y12" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>523.2182894146174</v>
+        <v>828.6810495199313</v>
       </c>
       <c r="C13" t="n">
-        <v>523.2182894146174</v>
+        <v>754.6658525262343</v>
       </c>
       <c r="D13" t="n">
-        <v>359.9015165413881</v>
+        <v>754.6658525262343</v>
       </c>
       <c r="E13" t="n">
-        <v>193.6933106942417</v>
+        <v>588.4576466790878</v>
       </c>
       <c r="F13" t="n">
-        <v>193.6933106942417</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G13" t="n">
-        <v>193.6933106942417</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="H13" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484809</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K13" t="n">
-        <v>166.4811349991142</v>
+        <v>244.402851647335</v>
       </c>
       <c r="L13" t="n">
-        <v>275.9756251911622</v>
+        <v>730.2862354305479</v>
       </c>
       <c r="M13" t="n">
-        <v>546.868586226072</v>
+        <v>1257.657713641259</v>
       </c>
       <c r="N13" t="n">
-        <v>1059.396764209472</v>
+        <v>1372.152968782779</v>
       </c>
       <c r="O13" t="n">
-        <v>1539.553111280806</v>
+        <v>1852.309315854113</v>
       </c>
       <c r="P13" t="n">
-        <v>1936.87886150226</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.771053098196</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.278665192341</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="U13" t="n">
-        <v>1457.143326818623</v>
+        <v>1611.587689049647</v>
       </c>
       <c r="V13" t="n">
-        <v>1457.143326818623</v>
+        <v>1329.876221657676</v>
       </c>
       <c r="W13" t="n">
-        <v>1182.290922991136</v>
+        <v>1055.023817830189</v>
       </c>
       <c r="X13" t="n">
-        <v>939.7270264369409</v>
+        <v>1055.023817830189</v>
       </c>
       <c r="Y13" t="n">
-        <v>713.384258126683</v>
+        <v>828.6810495199313</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>777.2404242990463</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="C14" t="n">
-        <v>777.2404242990463</v>
+        <v>824.4186425623777</v>
       </c>
       <c r="D14" t="n">
-        <v>777.2404242990463</v>
+        <v>824.4186425623777</v>
       </c>
       <c r="E14" t="n">
-        <v>351.2634844469038</v>
+        <v>824.4186425623777</v>
       </c>
       <c r="F14" t="n">
-        <v>351.2634844469038</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G14" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103585</v>
       </c>
       <c r="J14" t="n">
         <v>222.2360596072042</v>
@@ -5290,40 +5290,40 @@
         <v>1017.958031365649</v>
       </c>
       <c r="N14" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q14" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>1867.003122344158</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U14" t="n">
-        <v>1608.808787422829</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="V14" t="n">
-        <v>1608.808787422829</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W14" t="n">
-        <v>1608.808787422829</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="X14" t="n">
-        <v>1197.088788590576</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="Y14" t="n">
-        <v>1197.088788590576</v>
+        <v>1251.319372549078</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C15" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D15" t="n">
         <v>377.0871448858306</v>
@@ -5348,28 +5348,28 @@
         <v>178.739380841672</v>
       </c>
       <c r="G15" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I15" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J15" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577485</v>
       </c>
       <c r="K15" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259967</v>
       </c>
       <c r="L15" t="n">
-        <v>519.5225649727761</v>
+        <v>653.0519528483965</v>
       </c>
       <c r="M15" t="n">
-        <v>763.3527659282774</v>
+        <v>896.8821538038978</v>
       </c>
       <c r="N15" t="n">
-        <v>1015.977831562473</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O15" t="n">
         <v>1376.999083460952</v>
@@ -5399,10 +5399,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X15" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y15" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>586.1171529657373</v>
+        <v>586.5285910517829</v>
       </c>
       <c r="C16" t="n">
-        <v>414.1445898446533</v>
+        <v>414.5560279306989</v>
       </c>
       <c r="D16" t="n">
-        <v>414.1445898446533</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="E16" t="n">
-        <v>414.1445898446533</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="F16" t="n">
-        <v>343.903353649568</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="G16" t="n">
-        <v>178.5467362533892</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="H16" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J16" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K16" t="n">
         <v>491.6854607613571</v>
       </c>
       <c r="L16" t="n">
-        <v>601.1799509534052</v>
+        <v>601.1799509534051</v>
       </c>
       <c r="M16" t="n">
-        <v>1130.27825236505</v>
+        <v>1130.278252365049</v>
       </c>
       <c r="N16" t="n">
-        <v>1244.77350750657</v>
+        <v>1642.80643034845</v>
       </c>
       <c r="O16" t="n">
-        <v>1690.926608658705</v>
+        <v>1745.26045311658</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S16" t="n">
-        <v>2131.215415329222</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T16" t="n">
-        <v>1891.723027423367</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U16" t="n">
-        <v>1611.587689049648</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V16" t="n">
-        <v>1329.876221657677</v>
+        <v>1175.431859426651</v>
       </c>
       <c r="W16" t="n">
-        <v>1055.02381783019</v>
+        <v>1003.037328074106</v>
       </c>
       <c r="X16" t="n">
-        <v>812.4599212759953</v>
+        <v>1003.037328074106</v>
       </c>
       <c r="Y16" t="n">
-        <v>586.1171529657373</v>
+        <v>776.6945597638485</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1262.084989471087</v>
+        <v>1318.925708949733</v>
       </c>
       <c r="C17" t="n">
-        <v>1262.084989471087</v>
+        <v>892.0249789630327</v>
       </c>
       <c r="D17" t="n">
-        <v>1262.084989471087</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="E17" t="n">
-        <v>836.1080496189448</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="F17" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103653</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072049</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848317</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N17" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q17" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S17" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T17" t="n">
-        <v>2079.14225834845</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U17" t="n">
-        <v>2079.14225834845</v>
+        <v>1676.415123823483</v>
       </c>
       <c r="V17" t="n">
-        <v>2079.14225834845</v>
+        <v>1318.925708949733</v>
       </c>
       <c r="W17" t="n">
-        <v>2079.14225834845</v>
+        <v>1318.925708949733</v>
       </c>
       <c r="X17" t="n">
-        <v>1667.422259516197</v>
+        <v>1318.925708949733</v>
       </c>
       <c r="Y17" t="n">
-        <v>1262.084989471087</v>
+        <v>1318.925708949733</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C18" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D18" t="n">
         <v>377.0871448858306</v>
@@ -5585,22 +5585,22 @@
         <v>178.739380841672</v>
       </c>
       <c r="G18" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I18" t="n">
-        <v>86.44169614186399</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J18" t="n">
-        <v>165.481020982128</v>
+        <v>404.4659091426544</v>
       </c>
       <c r="K18" t="n">
-        <v>552.2568635109023</v>
+        <v>552.2568635109026</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5074531333022</v>
+        <v>758.5074531333023</v>
       </c>
       <c r="M18" t="n">
         <v>1002.337654088804</v>
@@ -5636,10 +5636,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X18" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y18" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>671.1651786405674</v>
+        <v>529.7737888799181</v>
       </c>
       <c r="C19" t="n">
-        <v>499.1926155194834</v>
+        <v>529.7737888799181</v>
       </c>
       <c r="D19" t="n">
-        <v>499.1926155194834</v>
+        <v>529.7737888799181</v>
       </c>
       <c r="E19" t="n">
-        <v>499.1926155194834</v>
+        <v>515.7651278750075</v>
       </c>
       <c r="F19" t="n">
-        <v>327.3308412940438</v>
+        <v>343.9033536495679</v>
       </c>
       <c r="G19" t="n">
-        <v>161.9742238978651</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J19" t="n">
-        <v>84.71320548484809</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K19" t="n">
-        <v>166.4811349991142</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L19" t="n">
-        <v>652.3645187823272</v>
+        <v>977.56884454457</v>
       </c>
       <c r="M19" t="n">
-        <v>768.3405774192806</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N19" t="n">
-        <v>1280.868755402681</v>
+        <v>1606.073081164924</v>
       </c>
       <c r="O19" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R19" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S19" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T19" t="n">
-        <v>1976.771053098196</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.635714724478</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.924247332507</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="W19" t="n">
-        <v>1140.07184350502</v>
+        <v>1188.846422456437</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5079469508254</v>
+        <v>946.2825259022417</v>
       </c>
       <c r="Y19" t="n">
-        <v>671.1651786405674</v>
+        <v>719.9397575919837</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1295.280650479912</v>
+        <v>466.0480391108902</v>
       </c>
       <c r="C20" t="n">
-        <v>868.3799204932119</v>
+        <v>466.0480391108902</v>
       </c>
       <c r="D20" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="E20" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="F20" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G20" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O20" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S20" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.003122344158</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U20" t="n">
-        <v>1608.808787422829</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="V20" t="n">
-        <v>1608.808787422829</v>
+        <v>1702.953672279782</v>
       </c>
       <c r="W20" t="n">
-        <v>1295.280650479912</v>
+        <v>1702.953672279782</v>
       </c>
       <c r="X20" t="n">
-        <v>1295.280650479912</v>
+        <v>1291.23367344753</v>
       </c>
       <c r="Y20" t="n">
-        <v>1295.280650479912</v>
+        <v>885.8964034024202</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C21" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D21" t="n">
         <v>377.0871448858306</v>
@@ -5822,22 +5822,22 @@
         <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426544</v>
       </c>
       <c r="K21" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109026</v>
       </c>
       <c r="L21" t="n">
-        <v>758.5074531333022</v>
+        <v>758.5074531333023</v>
       </c>
       <c r="M21" t="n">
         <v>1002.337654088804</v>
@@ -5873,10 +5873,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>431.6727907347118</v>
+        <v>515.8759167706519</v>
       </c>
       <c r="C22" t="n">
-        <v>380.8253983684765</v>
+        <v>343.9033536495679</v>
       </c>
       <c r="D22" t="n">
-        <v>380.8253983684765</v>
+        <v>343.9033536495679</v>
       </c>
       <c r="E22" t="n">
-        <v>214.6171925213301</v>
+        <v>343.9033536495679</v>
       </c>
       <c r="F22" t="n">
-        <v>42.75541829589048</v>
+        <v>343.9033536495679</v>
       </c>
       <c r="G22" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J22" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K22" t="n">
         <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>601.1799509534052</v>
+        <v>977.56884454457</v>
       </c>
       <c r="M22" t="n">
-        <v>717.1560095903586</v>
+        <v>1388.700612480481</v>
       </c>
       <c r="N22" t="n">
-        <v>1059.396764209472</v>
+        <v>1901.228790463881</v>
       </c>
       <c r="O22" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T22" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U22" t="n">
-        <v>1457.143326818623</v>
+        <v>1488.948525012434</v>
       </c>
       <c r="V22" t="n">
-        <v>1175.431859426652</v>
+        <v>1207.237057620463</v>
       </c>
       <c r="W22" t="n">
-        <v>900.5794555991647</v>
+        <v>932.3846537929755</v>
       </c>
       <c r="X22" t="n">
-        <v>658.0155590449698</v>
+        <v>932.3846537929755</v>
       </c>
       <c r="Y22" t="n">
-        <v>431.6727907347118</v>
+        <v>706.0418854827176</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1736.796314941625</v>
+        <v>1720.691662132999</v>
       </c>
       <c r="C23" t="n">
-        <v>1736.796314941625</v>
+        <v>1293.790932146299</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.503694126626</v>
+        <v>1293.790932146299</v>
       </c>
       <c r="E23" t="n">
-        <v>887.5267542744834</v>
+        <v>867.8139922941567</v>
       </c>
       <c r="F23" t="n">
-        <v>462.4025724638836</v>
+        <v>442.6898104835569</v>
       </c>
       <c r="G23" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H23" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I23" t="n">
         <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K23" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542979</v>
       </c>
       <c r="L23" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M23" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N23" t="n">
-        <v>1700.150952125847</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O23" t="n">
-        <v>1994.591395126371</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P23" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q23" t="n">
-        <v>2914.642355556173</v>
+        <v>2914.642355556174</v>
       </c>
       <c r="R23" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="S23" t="n">
         <v>2944.905897632023</v>
       </c>
       <c r="T23" t="n">
-        <v>2811.230363854138</v>
+        <v>2732.766761627732</v>
       </c>
       <c r="U23" t="n">
-        <v>2553.036028932808</v>
+        <v>2474.572426706403</v>
       </c>
       <c r="V23" t="n">
-        <v>2553.036028932808</v>
+        <v>2117.083011832652</v>
       </c>
       <c r="W23" t="n">
-        <v>2156.644679233155</v>
+        <v>1720.691662132999</v>
       </c>
       <c r="X23" t="n">
-        <v>2156.644679233155</v>
+        <v>1720.691662132999</v>
       </c>
       <c r="Y23" t="n">
-        <v>2156.644679233155</v>
+        <v>1720.691662132999</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>615.7482796387122</v>
+        <v>615.7482796387123</v>
       </c>
       <c r="C24" t="n">
-        <v>498.242376156217</v>
+        <v>498.2423761562171</v>
       </c>
       <c r="D24" t="n">
         <v>394.4024176715021</v>
@@ -6056,40 +6056,40 @@
         <v>289.7004839444393</v>
       </c>
       <c r="F24" t="n">
-        <v>196.0546536273434</v>
+        <v>196.0546536273435</v>
       </c>
       <c r="G24" t="n">
-        <v>103.0748183734007</v>
+        <v>103.0748183734008</v>
       </c>
       <c r="H24" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434199</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116681</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340678</v>
       </c>
       <c r="M24" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895692</v>
       </c>
       <c r="N24" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6110,10 +6110,10 @@
         <v>1047.84552393882</v>
       </c>
       <c r="X24" t="n">
-        <v>884.3681777054826</v>
+        <v>884.3681777054827</v>
       </c>
       <c r="Y24" t="n">
-        <v>744.675289058775</v>
+        <v>744.6752890587751</v>
       </c>
     </row>
     <row r="25">
@@ -6126,7 +6126,7 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D25" t="n">
         <v>771.9811253119058</v>
@@ -6138,46 +6138,46 @@
         <v>433.9111452393198</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H25" t="n">
         <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>916.9624006820206</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M25" t="n">
-        <v>1446.473939781796</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N25" t="n">
-        <v>1959.002117765196</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P25" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q25" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381771</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U25" t="n">
         <v>2322.906966102196</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1588.131710910091</v>
+        <v>2441.009380748933</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.131710910091</v>
+        <v>2014.108650762233</v>
       </c>
       <c r="D26" t="n">
-        <v>1164.839090095091</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E26" t="n">
         <v>1164.839090095091</v>
@@ -6226,22 +6226,22 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>438.0779318196597</v>
       </c>
       <c r="K26" t="n">
-        <v>679.7353589563252</v>
+        <v>652.9110437734555</v>
       </c>
       <c r="L26" t="n">
-        <v>1423.110161090654</v>
+        <v>925.4270522972872</v>
       </c>
       <c r="M26" t="n">
-        <v>1731.483012371471</v>
+        <v>1233.799903578104</v>
       </c>
       <c r="N26" t="n">
-        <v>2045.595402641462</v>
+        <v>1547.912293848095</v>
       </c>
       <c r="O26" t="n">
-        <v>2340.035845641986</v>
+        <v>1842.352736848619</v>
       </c>
       <c r="P26" t="n">
         <v>2585.727538982948</v>
@@ -6256,22 +6256,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2732.766761627731</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U26" t="n">
-        <v>2474.572426706402</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V26" t="n">
-        <v>2474.572426706402</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="W26" t="n">
-        <v>2405.188979787453</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="X26" t="n">
-        <v>1993.4689809552</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="Y26" t="n">
-        <v>1588.131710910091</v>
+        <v>2860.857745040463</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434199</v>
       </c>
       <c r="K27" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116681</v>
       </c>
       <c r="L27" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340678</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895692</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6375,10 +6375,10 @@
         <v>433.9111452393198</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5545278431407</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H28" t="n">
-        <v>132.763209885642</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I28" t="n">
         <v>60.07069108156194</v>
@@ -6393,10 +6393,10 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M28" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N28" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O28" t="n">
         <v>2405.316750564379</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1197.000370031163</v>
+        <v>1736.796314941625</v>
       </c>
       <c r="C29" t="n">
-        <v>1197.000370031163</v>
+        <v>1736.796314941625</v>
       </c>
       <c r="D29" t="n">
-        <v>773.7077492161632</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="E29" t="n">
-        <v>485.1948728921618</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F29" t="n">
-        <v>60.07069108156194</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G29" t="n">
         <v>60.07069108156194</v>
@@ -6466,22 +6466,22 @@
         <v>239.551332392876</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466718</v>
+        <v>454.3844443466717</v>
       </c>
       <c r="L29" t="n">
-        <v>1197.759246481001</v>
+        <v>726.9004528705035</v>
       </c>
       <c r="M29" t="n">
-        <v>1506.132097761818</v>
+        <v>1035.27330415132</v>
       </c>
       <c r="N29" t="n">
-        <v>2197.834060919214</v>
+        <v>1349.385694421312</v>
       </c>
       <c r="O29" t="n">
-        <v>2492.274503919738</v>
+        <v>1643.826137421835</v>
       </c>
       <c r="P29" t="n">
-        <v>2737.9661972607</v>
+        <v>2246.117289897965</v>
       </c>
       <c r="Q29" t="n">
         <v>2914.642355556173</v>
@@ -6490,25 +6490,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2791.395418073806</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U29" t="n">
-        <v>2791.395418073806</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V29" t="n">
-        <v>2433.906003200055</v>
+        <v>2587.416482758272</v>
       </c>
       <c r="W29" t="n">
-        <v>2433.906003200055</v>
+        <v>2568.364678065408</v>
       </c>
       <c r="X29" t="n">
-        <v>2022.186004367803</v>
+        <v>2156.644679233155</v>
       </c>
       <c r="Y29" t="n">
-        <v>1616.848734322693</v>
+        <v>2156.644679233155</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434199</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116681</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340678</v>
       </c>
       <c r="M30" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895692</v>
       </c>
       <c r="N30" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6600,19 +6600,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F31" t="n">
         <v>433.9111452393198</v>
       </c>
       <c r="G31" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H31" t="n">
         <v>132.7632098856423</v>
@@ -6624,19 +6624,19 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K31" t="n">
-        <v>397.2373026266569</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L31" t="n">
-        <v>883.1206864098698</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O31" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P31" t="n">
         <v>2802.642500785833</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>841.2754438378563</v>
+        <v>2038.677499366611</v>
       </c>
       <c r="C32" t="n">
-        <v>841.2754438378563</v>
+        <v>1611.776769379911</v>
       </c>
       <c r="D32" t="n">
-        <v>841.2754438378563</v>
+        <v>1188.484148564912</v>
       </c>
       <c r="E32" t="n">
-        <v>415.2985039857139</v>
+        <v>762.5072087127692</v>
       </c>
       <c r="F32" t="n">
-        <v>415.2985039857139</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="G32" t="n">
         <v>337.3830269021693</v>
@@ -6700,22 +6700,22 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>982.926134527205</v>
+        <v>1302.832810844574</v>
       </c>
       <c r="L32" t="n">
-        <v>1255.442143051037</v>
+        <v>1575.348819368405</v>
       </c>
       <c r="M32" t="n">
-        <v>1563.814994331854</v>
+        <v>1883.721670649222</v>
       </c>
       <c r="N32" t="n">
-        <v>1877.927384601845</v>
+        <v>2197.834060919214</v>
       </c>
       <c r="O32" t="n">
-        <v>2172.367827602369</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P32" t="n">
         <v>2737.9661972607</v>
@@ -6730,22 +6730,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>2732.766761627731</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U32" t="n">
-        <v>2474.572426706402</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V32" t="n">
-        <v>2474.572426706402</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="W32" t="n">
-        <v>2078.181077006749</v>
+        <v>2548.514547932369</v>
       </c>
       <c r="X32" t="n">
-        <v>1666.461078174496</v>
+        <v>2548.514547932369</v>
       </c>
       <c r="Y32" t="n">
-        <v>1261.123808129386</v>
+        <v>2458.525863658141</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434199</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116681</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340678</v>
       </c>
       <c r="M33" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895692</v>
       </c>
       <c r="N33" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O33" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P33" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q33" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R33" t="n">
         <v>1832.965147628227</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119062</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647598</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F34" t="n">
-        <v>433.9111452393203</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5545278431414</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H34" t="n">
-        <v>132.7632098856425</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I34" t="n">
         <v>60.07069108156194</v>
@@ -6870,13 +6870,13 @@
         <v>1524.395656430017</v>
       </c>
       <c r="N34" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O34" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P34" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6888,7 +6888,7 @@
         <v>2842.53469238177</v>
       </c>
       <c r="T34" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U34" t="n">
         <v>2322.906966102196</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>895.6330881347328</v>
+        <v>1360.433135629242</v>
       </c>
       <c r="C35" t="n">
-        <v>468.7323581480329</v>
+        <v>933.5324056425425</v>
       </c>
       <c r="D35" t="n">
-        <v>468.7323581480329</v>
+        <v>510.2397848275427</v>
       </c>
       <c r="E35" t="n">
-        <v>42.75541829589048</v>
+        <v>510.2397848275427</v>
       </c>
       <c r="F35" t="n">
-        <v>42.75541829589048</v>
+        <v>510.2397848275427</v>
       </c>
       <c r="G35" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J35" t="n">
         <v>222.2360596072044</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L35" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848317</v>
       </c>
       <c r="M35" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N35" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O35" t="n">
         <v>1626.510864636164</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S35" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T35" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U35" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="V35" t="n">
-        <v>1721.652843474699</v>
+        <v>1780.281499920772</v>
       </c>
       <c r="W35" t="n">
-        <v>1712.690357012095</v>
+        <v>1780.281499920772</v>
       </c>
       <c r="X35" t="n">
-        <v>1300.970358179843</v>
+        <v>1780.281499920772</v>
       </c>
       <c r="Y35" t="n">
-        <v>895.6330881347328</v>
+        <v>1780.281499920772</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C36" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D36" t="n">
         <v>377.0871448858306</v>
@@ -7007,25 +7007,25 @@
         <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I36" t="n">
-        <v>86.44169614186399</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J36" t="n">
-        <v>165.481020982128</v>
+        <v>404.4659091426544</v>
       </c>
       <c r="K36" t="n">
-        <v>313.2719753503762</v>
+        <v>552.2568635109026</v>
       </c>
       <c r="L36" t="n">
-        <v>519.5225649727761</v>
+        <v>758.5074531333023</v>
       </c>
       <c r="M36" t="n">
-        <v>763.3527659282774</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N36" t="n">
         <v>1254.962719722999</v>
@@ -7058,10 +7058,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y36" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>378.0447542902037</v>
+        <v>522.914725315434</v>
       </c>
       <c r="C37" t="n">
-        <v>206.0721911691198</v>
+        <v>350.94216219435</v>
       </c>
       <c r="D37" t="n">
-        <v>42.75541829589048</v>
+        <v>350.94216219435</v>
       </c>
       <c r="E37" t="n">
-        <v>42.75541829589048</v>
+        <v>350.94216219435</v>
       </c>
       <c r="F37" t="n">
-        <v>42.75541829589048</v>
+        <v>179.0803879689104</v>
       </c>
       <c r="G37" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H37" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J37" t="n">
-        <v>84.71320548484809</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K37" t="n">
-        <v>166.4811349991142</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L37" t="n">
-        <v>275.9756251911622</v>
+        <v>977.56884454457</v>
       </c>
       <c r="M37" t="n">
-        <v>698.242083603971</v>
+        <v>1506.667145956214</v>
       </c>
       <c r="N37" t="n">
-        <v>1210.770261587371</v>
+        <v>1901.228790463881</v>
       </c>
       <c r="O37" t="n">
-        <v>1690.926608658705</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P37" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.143326818623</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V37" t="n">
-        <v>1175.431859426652</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="W37" t="n">
-        <v>900.5794555991647</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="X37" t="n">
-        <v>658.0155590449698</v>
+        <v>939.4234623377575</v>
       </c>
       <c r="Y37" t="n">
-        <v>431.6727907347118</v>
+        <v>713.0806940274996</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>746.0446939686403</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="C38" t="n">
-        <v>746.0446939686403</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D38" t="n">
-        <v>746.0446939686403</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E38" t="n">
-        <v>320.0677541164978</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072051</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610008</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M38" t="n">
         <v>1017.958031365649</v>
@@ -7189,37 +7189,37 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R38" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T38" t="n">
-        <v>1925.631778790233</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U38" t="n">
-        <v>1667.437443868903</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="V38" t="n">
-        <v>1667.437443868903</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="W38" t="n">
-        <v>1271.04609416925</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="X38" t="n">
-        <v>1151.38196401375</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="Y38" t="n">
-        <v>746.0446939686403</v>
+        <v>2137.770914794523</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C39" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D39" t="n">
         <v>377.0871448858306</v>
@@ -7244,37 +7244,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J39" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577492</v>
       </c>
       <c r="K39" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259974</v>
       </c>
       <c r="L39" t="n">
-        <v>496.0652591283642</v>
+        <v>653.051952848397</v>
       </c>
       <c r="M39" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038983</v>
       </c>
       <c r="N39" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O39" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7295,10 +7295,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y39" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>467.8495903329041</v>
+        <v>438.2282902000126</v>
       </c>
       <c r="C40" t="n">
-        <v>295.8770272118202</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="D40" t="n">
-        <v>132.5602543385909</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="E40" t="n">
-        <v>132.5602543385909</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F40" t="n">
-        <v>42.75541829589048</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G40" t="n">
-        <v>42.75541829589048</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J40" t="n">
-        <v>84.71320548484809</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K40" t="n">
-        <v>166.4811349991142</v>
+        <v>491.685460761357</v>
       </c>
       <c r="L40" t="n">
-        <v>275.9756251911622</v>
+        <v>977.5688445445699</v>
       </c>
       <c r="M40" t="n">
-        <v>698.242083603971</v>
+        <v>1506.667145956214</v>
       </c>
       <c r="N40" t="n">
-        <v>1210.770261587371</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O40" t="n">
-        <v>1690.926608658705</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P40" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q40" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S40" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T40" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U40" t="n">
-        <v>1457.143326818623</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V40" t="n">
-        <v>1175.431859426652</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="W40" t="n">
-        <v>900.5794555991647</v>
+        <v>907.1349550644654</v>
       </c>
       <c r="X40" t="n">
-        <v>658.0155590449698</v>
+        <v>664.5710585102705</v>
       </c>
       <c r="Y40" t="n">
-        <v>658.0155590449698</v>
+        <v>438.2282902000126</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>850.3801749915409</v>
+        <v>469.6561482825904</v>
       </c>
       <c r="C41" t="n">
-        <v>850.3801749915409</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="D41" t="n">
-        <v>427.0875541765412</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="E41" t="n">
-        <v>427.0875541765412</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="F41" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G41" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M41" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N41" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O41" t="n">
         <v>1626.510864636164</v>
@@ -7432,31 +7432,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T41" t="n">
-        <v>1925.631778790233</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U41" t="n">
-        <v>1667.437443868903</v>
+        <v>2102.953131151136</v>
       </c>
       <c r="V41" t="n">
-        <v>1667.437443868903</v>
+        <v>2102.953131151136</v>
       </c>
       <c r="W41" t="n">
-        <v>1667.437443868903</v>
+        <v>1706.561781451483</v>
       </c>
       <c r="X41" t="n">
-        <v>1255.717445036651</v>
+        <v>1294.84178261923</v>
       </c>
       <c r="Y41" t="n">
-        <v>850.3801749915409</v>
+        <v>889.5045125741204</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C42" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D42" t="n">
         <v>377.0871448858306</v>
@@ -7481,37 +7481,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G42" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577492</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259974</v>
       </c>
       <c r="L42" t="n">
-        <v>496.0652591283642</v>
+        <v>653.051952848397</v>
       </c>
       <c r="M42" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038983</v>
       </c>
       <c r="N42" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P42" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7532,10 +7532,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X42" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>851.9060523202886</v>
+        <v>484.0707185768402</v>
       </c>
       <c r="C43" t="n">
-        <v>679.9334891992046</v>
+        <v>312.0981554557562</v>
       </c>
       <c r="D43" t="n">
-        <v>516.6167163259753</v>
+        <v>312.0981554557562</v>
       </c>
       <c r="E43" t="n">
-        <v>350.4085104788288</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="F43" t="n">
-        <v>178.5467362533892</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G43" t="n">
-        <v>178.5467362533892</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H43" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J43" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K43" t="n">
-        <v>491.6854607613571</v>
+        <v>491.685460761357</v>
       </c>
       <c r="L43" t="n">
-        <v>601.1799509534052</v>
+        <v>977.5688445445699</v>
       </c>
       <c r="M43" t="n">
-        <v>717.1560095903586</v>
+        <v>1096.275006445851</v>
       </c>
       <c r="N43" t="n">
-        <v>1229.684187573759</v>
+        <v>1210.770261587371</v>
       </c>
       <c r="O43" t="n">
-        <v>1539.553111280806</v>
+        <v>1690.926608658704</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R43" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S43" t="n">
-        <v>2137.770914794524</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T43" t="n">
-        <v>1898.278526888668</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U43" t="n">
-        <v>1618.14318851495</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V43" t="n">
-        <v>1543.267193170099</v>
+        <v>1175.431859426651</v>
       </c>
       <c r="W43" t="n">
-        <v>1268.414789342612</v>
+        <v>900.5794555991638</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.414789342612</v>
+        <v>900.5794555991638</v>
       </c>
       <c r="Y43" t="n">
-        <v>1042.072021032354</v>
+        <v>674.2366872889058</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>916.1939307582309</v>
+        <v>868.3799204932119</v>
       </c>
       <c r="C44" t="n">
-        <v>870.211481488812</v>
+        <v>868.3799204932119</v>
       </c>
       <c r="D44" t="n">
-        <v>870.211481488812</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E44" t="n">
-        <v>870.211481488812</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F44" t="n">
         <v>445.0872996782122</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072051</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610008</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M44" t="n">
         <v>1017.958031365649</v>
@@ -7663,37 +7663,37 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q44" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S44" t="n">
-        <v>2137.770914794524</v>
+        <v>2089.956904529505</v>
       </c>
       <c r="T44" t="n">
-        <v>2137.770914794524</v>
+        <v>2089.956904529505</v>
       </c>
       <c r="U44" t="n">
-        <v>2137.770914794524</v>
+        <v>2089.956904529505</v>
       </c>
       <c r="V44" t="n">
-        <v>2137.770914794524</v>
+        <v>2089.956904529505</v>
       </c>
       <c r="W44" t="n">
-        <v>1741.379565094871</v>
+        <v>1693.565554829851</v>
       </c>
       <c r="X44" t="n">
-        <v>1741.379565094871</v>
+        <v>1693.565554829851</v>
       </c>
       <c r="Y44" t="n">
-        <v>1336.042295049761</v>
+        <v>1288.228284784742</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C45" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D45" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E45" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F45" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H45" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I45" t="n">
-        <v>385.1054302494206</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J45" t="n">
-        <v>464.1447550896847</v>
+        <v>404.4659091426551</v>
       </c>
       <c r="K45" t="n">
-        <v>611.9357094579329</v>
+        <v>552.2568635109033</v>
       </c>
       <c r="L45" t="n">
-        <v>818.1862990803327</v>
+        <v>758.5074531333029</v>
       </c>
       <c r="M45" t="n">
-        <v>1062.016500035834</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N45" t="n">
-        <v>1314.641565670029</v>
+        <v>1254.962719723</v>
       </c>
       <c r="O45" t="n">
-        <v>1804.575623697827</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P45" t="n">
-        <v>1984.016277348648</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.855732839468</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R45" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S45" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T45" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U45" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V45" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W45" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y45" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>746.1208511740241</v>
+        <v>423.2118181785536</v>
       </c>
       <c r="C46" t="n">
-        <v>746.1208511740241</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="D46" t="n">
-        <v>582.8040783007948</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="E46" t="n">
-        <v>416.5958724536483</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="F46" t="n">
-        <v>416.5958724536483</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="G46" t="n">
         <v>251.2392550574696</v>
@@ -7803,55 +7803,55 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J46" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484803</v>
       </c>
       <c r="K46" t="n">
-        <v>343.0420666477859</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L46" t="n">
-        <v>828.9254504309988</v>
+        <v>652.364518782327</v>
       </c>
       <c r="M46" t="n">
-        <v>944.9015090679522</v>
+        <v>1181.462820193971</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.396764209472</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O46" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P46" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R46" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S46" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T46" t="n">
-        <v>1737.278665192341</v>
+        <v>1898.278526888667</v>
       </c>
       <c r="U46" t="n">
-        <v>1737.278665192341</v>
+        <v>1618.143188514949</v>
       </c>
       <c r="V46" t="n">
-        <v>1455.56719780037</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W46" t="n">
-        <v>1215.027516038477</v>
+        <v>1082.284451755072</v>
       </c>
       <c r="X46" t="n">
-        <v>972.463619484282</v>
+        <v>839.7205552008772</v>
       </c>
       <c r="Y46" t="n">
-        <v>746.1208511740241</v>
+        <v>613.3777868906193</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>134.8781695713339</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>265.0931252575129</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>156.4817195938953</v>
+        <v>415.5509288623816</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9005,7 +9005,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>134.8781695713339</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>134.8781695713336</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9093,19 +9093,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>347.1707862464693</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>108.1301643813463</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="K18" t="n">
-        <v>241.3988769298243</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9336,13 +9336,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>157.8084172828228</v>
+        <v>298.1370800999571</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>298.1370800999573</v>
       </c>
       <c r="N22" t="n">
-        <v>230.0459590682764</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9649,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>354.3083411156917</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>502.710210902391</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>461.332472515431</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9810,13 +9810,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>347.3339495263156</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891816</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>200.5319186129129</v>
       </c>
       <c r="K26" t="n">
-        <v>227.6271864743973</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>475.6149430409062</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>502.7102109023911</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,13 +10041,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630811</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>268.6251448311431</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
@@ -10117,22 +10117,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>475.6149430409062</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>381.4036089771762</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>360.2014738739065</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>136.888058781465</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10287,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>203.0230036898349</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>533.8804951318516</v>
+        <v>461.3324725154301</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>323.1380568862311</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>289.1611029510189</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891724</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.3988769298244</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>309.3842421978337</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>282.8953427940876</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.8781695713346</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>309.3842421978337</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>282.8953427940881</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713346</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,22 +11223,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2.757680064977237</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>209.5100009484005</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>265.0931252575141</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>178.3443754026987</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>209.331103319707</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23272,10 +23272,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>131.5271246044197</v>
       </c>
       <c r="H11" t="n">
-        <v>157.7249038265371</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>96.97779246611309</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>56.97048491959561</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>319.8741229995711</v>
       </c>
       <c r="G14" t="n">
-        <v>92.88557707899525</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>100.6043326500507</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>101.4332937501932</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>33.76239755116842</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
         <v>274.5392124624013</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.612391572116</v>
+        <v>66.93027303664846</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>150.6775493938134</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>88.37238084800842</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
         <v>274.5392124624013</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>191.5055651612819</v>
       </c>
       <c r="W20" t="n">
-        <v>82.0345806291686</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>119.9139190473002</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>71.96559361603954</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>24.99720174122513</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>294.0548468229247</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>77.67896620414211</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>323.7378237528969</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>318.0762262790144</v>
       </c>
     </row>
     <row r="27">
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>136.0894228928596</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>274.5392124624013</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U29" t="n">
         <v>255.612391572116</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>373.5661495567215</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>321.1722402557893</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>312.1950999131728</v>
       </c>
     </row>
     <row r="33">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3085625684984</v>
+        <v>210.038252164564</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U35" t="n">
         <v>255.612391572116</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>383.5545746046789</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>135.172552944882</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7030512222169</v>
+        <v>28.7413312459272</v>
       </c>
       <c r="H37" t="n">
         <v>134.4334047779237</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>25.86606685476607</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>289.1353099899849</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>148.8367439209725</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>81.23636880091179</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>314.9233379330508</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>221.1427857651629</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>61.59986522262481</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>204.7671173266492</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>377.1090979101081</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161366</v>
+        <v>10.7064997192457</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U44" t="n">
         <v>255.612391572116</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>33.96959484493826</v>
+        <v>20.49808311498529</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>359206.5174878114</v>
+        <v>359206.5174878113</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>359206.5174878114</v>
+        <v>359206.5174878112</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>359206.5174878114</v>
+        <v>359206.5174878113</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>359206.5174878114</v>
+        <v>359206.5174878113</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>359206.5174878114</v>
+        <v>359206.5174878113</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>359206.5174878114</v>
+        <v>359206.5174878113</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>359206.5174878114</v>
+        <v>359206.5174878113</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>430317.9085594747</v>
+        <v>430317.9085594745</v>
       </c>
       <c r="C2" t="n">
-        <v>430317.9085594746</v>
+        <v>430317.9085594745</v>
       </c>
       <c r="D2" t="n">
-        <v>430317.9085594747</v>
+        <v>430317.9085594745</v>
       </c>
       <c r="E2" t="n">
         <v>255889.0355517156</v>
       </c>
       <c r="F2" t="n">
-        <v>255889.0355517154</v>
+        <v>255889.0355517155</v>
       </c>
       <c r="G2" t="n">
-        <v>255889.0355517155</v>
+        <v>255889.0355517156</v>
       </c>
       <c r="H2" t="n">
         <v>255889.0355517156</v>
       </c>
       <c r="I2" t="n">
-        <v>321154.2292478339</v>
+        <v>321154.2292478337</v>
       </c>
       <c r="J2" t="n">
-        <v>321154.2292478335</v>
+        <v>321154.229247834</v>
       </c>
       <c r="K2" t="n">
-        <v>321154.2292478335</v>
+        <v>321154.2292478341</v>
       </c>
       <c r="L2" t="n">
-        <v>321154.2292478338</v>
+        <v>321154.229247834</v>
       </c>
       <c r="M2" t="n">
+        <v>255889.0355517154</v>
+      </c>
+      <c r="N2" t="n">
         <v>255889.0355517155</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>255889.0355517156</v>
-      </c>
-      <c r="O2" t="n">
-        <v>255889.0355517155</v>
       </c>
       <c r="P2" t="n">
         <v>255889.0355517154</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222537</v>
+        <v>556689.6559222536</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048175</v>
+        <v>57556.18318048187</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160773</v>
+        <v>79247.32527160761</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>320775.5268176608</v>
       </c>
       <c r="C4" t="n">
-        <v>320775.5268176608</v>
+        <v>320775.5268176607</v>
       </c>
       <c r="D4" t="n">
         <v>320775.5268176608</v>
@@ -26438,13 +26438,13 @@
         <v>18463.88573763714</v>
       </c>
       <c r="I4" t="n">
+        <v>54111.91521625014</v>
+      </c>
+      <c r="J4" t="n">
         <v>54111.9152162501</v>
       </c>
-      <c r="J4" t="n">
-        <v>54111.91521625008</v>
-      </c>
       <c r="K4" t="n">
-        <v>54111.91521625009</v>
+        <v>54111.91521625013</v>
       </c>
       <c r="L4" t="n">
         <v>54111.9152162501</v>
@@ -26453,10 +26453,10 @@
         <v>18463.88573763714</v>
       </c>
       <c r="N4" t="n">
-        <v>18463.88573763714</v>
+        <v>18463.88573763715</v>
       </c>
       <c r="O4" t="n">
-        <v>18463.88573763714</v>
+        <v>18463.88573763715</v>
       </c>
       <c r="P4" t="n">
         <v>18463.88573763715</v>
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="I5" t="n">
-        <v>56429.32173361156</v>
+        <v>56429.32173361158</v>
       </c>
       <c r="J5" t="n">
         <v>56429.32173361156</v>
@@ -26502,16 +26502,16 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650123</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75914.78174181393</v>
+        <v>75893.0681003174</v>
       </c>
       <c r="C6" t="n">
-        <v>75914.78174181387</v>
+        <v>75893.06810031745</v>
       </c>
       <c r="D6" t="n">
-        <v>75914.78174181393</v>
+        <v>75893.0681003174</v>
       </c>
       <c r="E6" t="n">
-        <v>-362534.2205246765</v>
+        <v>-363137.3637428652</v>
       </c>
       <c r="F6" t="n">
-        <v>194155.435397577</v>
+        <v>193552.2921793883</v>
       </c>
       <c r="G6" t="n">
-        <v>194155.4353975771</v>
+        <v>193552.2921793884</v>
       </c>
       <c r="H6" t="n">
-        <v>194155.4353975772</v>
+        <v>193552.2921793883</v>
       </c>
       <c r="I6" t="n">
-        <v>153056.8091174905</v>
+        <v>152671.2165449549</v>
       </c>
       <c r="J6" t="n">
-        <v>210612.9922979719</v>
+        <v>210227.3997254372</v>
       </c>
       <c r="K6" t="n">
-        <v>210612.9922979719</v>
+        <v>210227.3997254373</v>
       </c>
       <c r="L6" t="n">
-        <v>210612.9922979721</v>
+        <v>210227.3997254371</v>
       </c>
       <c r="M6" t="n">
-        <v>114908.1101259694</v>
+        <v>114304.9669077806</v>
       </c>
       <c r="N6" t="n">
-        <v>194155.4353975772</v>
+        <v>193552.2921793882</v>
       </c>
       <c r="O6" t="n">
-        <v>194155.4353975771</v>
+        <v>193552.2921793883</v>
       </c>
       <c r="P6" t="n">
-        <v>194155.435397577</v>
+        <v>193552.2921793882</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.293417964426</v>
       </c>
       <c r="F3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="O3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="P3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="G4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="H4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="I4" t="n">
-        <v>750.8836385195242</v>
+        <v>750.8836385195244</v>
       </c>
       <c r="J4" t="n">
         <v>750.8836385195242</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="O4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="P4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.293417964426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208932</v>
+        <v>216.4409098208937</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777376</v>
+        <v>318.0018188777372</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H11" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J11" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K11" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L11" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N11" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O11" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R11" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H12" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J12" t="n">
         <v>100.4488161921859</v>
@@ -31846,34 +31846,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M12" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P12" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R12" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S12" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I13" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
@@ -31934,25 +31934,25 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O13" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P13" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S13" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T13" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,34 +31992,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H14" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J14" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K14" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L14" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N14" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O14" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R14" t="n">
         <v>124.822749411891</v>
@@ -32028,10 +32028,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H15" t="n">
         <v>10.26824628639308</v>
@@ -32083,34 +32083,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M15" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P15" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q15" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R15" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S15" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I16" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
@@ -32171,19 +32171,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O16" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P16" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S16" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T16" t="n">
         <v>3.80849026956197</v>
@@ -32229,34 +32229,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H17" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K17" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L17" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N17" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O17" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q17" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R17" t="n">
         <v>124.822749411891</v>
@@ -32265,10 +32265,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H18" t="n">
         <v>10.26824628639308</v>
@@ -32320,34 +32320,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M18" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N18" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P18" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S18" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32408,19 +32408,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O19" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P19" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S19" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T19" t="n">
         <v>3.80849026956197</v>
@@ -32466,34 +32466,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H20" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K20" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L20" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M20" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N20" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O20" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P20" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R20" t="n">
         <v>124.822749411891</v>
@@ -32502,10 +32502,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H21" t="n">
         <v>10.26824628639308</v>
@@ -32557,34 +32557,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L21" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M21" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N21" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O21" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P21" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S21" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I22" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32645,19 +32645,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O22" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P22" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R22" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S22" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T22" t="n">
         <v>3.80849026956197</v>
@@ -32703,34 +32703,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H23" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K23" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L23" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N23" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O23" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R23" t="n">
         <v>124.822749411891</v>
@@ -32739,10 +32739,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H24" t="n">
         <v>10.26824628639308</v>
@@ -32794,34 +32794,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L24" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M24" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N24" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O24" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P24" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S24" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I25" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32882,19 +32882,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O25" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P25" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R25" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S25" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T25" t="n">
         <v>3.80849026956197</v>
@@ -32940,34 +32940,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H26" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K26" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L26" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M26" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N26" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O26" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P26" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R26" t="n">
         <v>124.822749411891</v>
@@ -32976,10 +32976,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H27" t="n">
         <v>10.26824628639308</v>
@@ -33031,34 +33031,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L27" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M27" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N27" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O27" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P27" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S27" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I28" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33119,19 +33119,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O28" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P28" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R28" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S28" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T28" t="n">
         <v>3.80849026956197</v>
@@ -33177,34 +33177,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H29" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K29" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L29" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N29" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O29" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R29" t="n">
         <v>124.822749411891</v>
@@ -33213,10 +33213,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H30" t="n">
         <v>10.26824628639308</v>
@@ -33268,34 +33268,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L30" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M30" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N30" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O30" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P30" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S30" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I31" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33356,19 +33356,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O31" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P31" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R31" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S31" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T31" t="n">
         <v>3.80849026956197</v>
@@ -33414,34 +33414,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H32" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K32" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L32" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M32" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O32" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R32" t="n">
         <v>124.822749411891</v>
@@ -33450,10 +33450,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H33" t="n">
         <v>10.26824628639308</v>
@@ -33505,34 +33505,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L33" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M33" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N33" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O33" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P33" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S33" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I34" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33593,19 +33593,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O34" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P34" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R34" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S34" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T34" t="n">
         <v>3.80849026956197</v>
@@ -33651,34 +33651,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H35" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J35" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K35" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L35" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O35" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R35" t="n">
         <v>124.822749411891</v>
@@ -33687,10 +33687,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H36" t="n">
         <v>10.26824628639308</v>
@@ -33742,34 +33742,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L36" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M36" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N36" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P36" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S36" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I37" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
@@ -33830,19 +33830,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O37" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P37" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S37" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T37" t="n">
         <v>3.80849026956197</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J38" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K38" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L38" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O38" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R38" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H39" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J39" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K39" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L39" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M39" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N39" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P39" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S39" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K40" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L40" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M40" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N40" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O40" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P40" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T40" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J41" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K41" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M41" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O41" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R41" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H42" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K42" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L42" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M42" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P42" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S42" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K43" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L43" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M43" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N43" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O43" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P43" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R43" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T43" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J44" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867673</v>
       </c>
       <c r="K44" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M44" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O44" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R44" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H45" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K45" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L45" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M45" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N45" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P45" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S45" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K46" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L46" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M46" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N46" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O46" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P46" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R46" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S46" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T46" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J11" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L11" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M11" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O11" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301864</v>
       </c>
       <c r="K12" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L12" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M12" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O12" t="n">
-        <v>494.8828868967645</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P12" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
-        <v>82.5938681962284</v>
+        <v>82.59386819622837</v>
       </c>
       <c r="L13" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M13" t="n">
-        <v>273.629253570616</v>
+        <v>532.6984628391023</v>
       </c>
       <c r="N13" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O13" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P13" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q13" t="n">
         <v>202.9212659517818</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J14" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K14" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L14" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M14" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N14" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O14" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P14" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301864</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911598</v>
@@ -35737,16 +35737,16 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O15" t="n">
-        <v>364.6679312105852</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P15" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R15" t="n">
         <v>148.85927498986</v>
@@ -35813,19 +35813,19 @@
         <v>110.6004951434828</v>
       </c>
       <c r="M16" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N16" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O16" t="n">
-        <v>450.6596981334694</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P16" t="n">
-        <v>401.3391416378323</v>
+        <v>193.5539478643225</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J17" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K17" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L17" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M17" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O17" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.12755337977123</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163659</v>
       </c>
       <c r="K18" t="n">
-        <v>390.6826692209842</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
         <v>208.3339289115149</v>
@@ -35974,19 +35974,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O18" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P18" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K19" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L19" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M19" t="n">
         <v>117.1475339767207</v>
       </c>
       <c r="N19" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O19" t="n">
-        <v>261.2973291698229</v>
+        <v>401.6259919869572</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J20" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K20" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L20" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M20" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N20" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O20" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163659</v>
       </c>
       <c r="K21" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L21" t="n">
-        <v>473.4270541690281</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M21" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O21" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P21" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M22" t="n">
-        <v>117.1475339767207</v>
+        <v>415.2846140766779</v>
       </c>
       <c r="N22" t="n">
-        <v>345.6977319384987</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O22" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P22" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J23" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L23" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M23" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
-        <v>671.5935838126526</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O23" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P23" t="n">
-        <v>750.8836385195242</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550238</v>
+        <v>639.7932384704548</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K24" t="n">
         <v>149.2837922911598</v>
@@ -36448,19 +36448,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>520.269959231448</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O24" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P24" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M25" t="n">
         <v>534.8601405048234</v>
       </c>
       <c r="N25" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O25" t="n">
-        <v>450.8228614133158</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676154</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>339.7653701140931</v>
       </c>
       <c r="K26" t="n">
-        <v>444.6303298620699</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L26" t="n">
-        <v>750.8836385195242</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M26" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N26" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O26" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171333</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R26" t="n">
         <v>243.5665220198734</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K27" t="n">
         <v>149.2837922911598</v>
@@ -36682,22 +36682,22 @@
         <v>208.3339289115149</v>
       </c>
       <c r="M27" t="n">
-        <v>511.3862575357973</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O27" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P27" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398018</v>
       </c>
       <c r="N28" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O28" t="n">
-        <v>372.1140567181432</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
         <v>401.3391416378323</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K29" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L29" t="n">
-        <v>750.8836385195242</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M29" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N29" t="n">
-        <v>698.6888516741371</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O29" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
-        <v>248.1734276171333</v>
+        <v>608.3749014910397</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550238</v>
+        <v>675.2778440992006</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K30" t="n">
         <v>149.2837922911598</v>
@@ -36922,19 +36922,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O30" t="n">
-        <v>494.8828868967647</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P30" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
-        <v>219.4819269776934</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L31" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M31" t="n">
         <v>534.8601405048234</v>
       </c>
       <c r="N31" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O31" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378323</v>
+        <v>288.446787172811</v>
       </c>
       <c r="Q31" t="n">
         <v>202.9212659517818</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
-        <v>750.8836385195242</v>
+        <v>678.3356159031026</v>
       </c>
       <c r="L32" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M32" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N32" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O32" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P32" t="n">
-        <v>571.3114845033643</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R32" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911598</v>
@@ -37159,19 +37159,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O33" t="n">
-        <v>494.8828868967647</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P33" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,13 +37232,13 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L34" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M34" t="n">
         <v>534.8601405048234</v>
       </c>
       <c r="N34" t="n">
-        <v>404.8128758212413</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O34" t="n">
         <v>485.006411183165</v>
@@ -37247,7 +37247,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K35" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L35" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M35" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O35" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>44.12755337977123</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163659</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
@@ -37396,19 +37396,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N36" t="n">
-        <v>496.5757109037592</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P36" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K37" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L37" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M37" t="n">
-        <v>426.5317761745544</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N37" t="n">
-        <v>517.705230286263</v>
+        <v>398.54711566431</v>
       </c>
       <c r="O37" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J38" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011808</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L38" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301871</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L39" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M39" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P39" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136924</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K40" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L40" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M40" t="n">
-        <v>426.5317761745544</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N40" t="n">
-        <v>517.705230286263</v>
+        <v>398.5471156643104</v>
       </c>
       <c r="O40" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297612</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J41" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L41" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O41" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709496</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301871</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L42" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N42" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P42" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q42" t="n">
-        <v>378.0622722179372</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136924</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,22 +37943,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L43" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M43" t="n">
-        <v>117.1475339767207</v>
+        <v>119.9052140416979</v>
       </c>
       <c r="N43" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702223</v>
       </c>
       <c r="O43" t="n">
-        <v>312.9989128354006</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J44" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011808</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L44" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O44" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163666</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L45" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O45" t="n">
-        <v>494.8828868967648</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116927</v>
       </c>
       <c r="K46" t="n">
-        <v>260.938243598927</v>
+        <v>82.59386819622834</v>
       </c>
       <c r="L46" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M46" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N46" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O46" t="n">
-        <v>485.006411183165</v>
+        <v>312.8200152067071</v>
       </c>
       <c r="P46" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297612</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
